--- a/examples/2.2.0/SAF_example_HOUSE_metric_ZYX_220.xlsx
+++ b/examples/2.2.0/SAF_example_HOUSE_metric_ZYX_220.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\2023-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\workwork\SAF example house\2023-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48420114-9F16-4E22-8E60-A2A5E554187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC4AA89-F1B3-417C-8DDF-0C77E945051A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="-13020" windowWidth="17220" windowHeight="8850" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="1194">
   <si>
     <t>Name</t>
   </si>
@@ -3523,9 +3523,6 @@
     <t>0be4aa8b-df0c-46be-90ae-120990378140</t>
   </si>
   <si>
-    <t>fc23805f-fe8a-4c68-8b78-43d6785b25b9</t>
-  </si>
-  <si>
     <t>Multiplier 2</t>
   </si>
   <si>
@@ -3605,9 +3602,6 @@
   </si>
   <si>
     <t>Sb1</t>
-  </si>
-  <si>
-    <t>6a589737-a8f0-4ec4-a334-fd9d96c1f0ad</t>
   </si>
   <si>
     <t>Boundary condition</t>
@@ -3662,7 +3656,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3990,8 +3984,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="tblStructuralPointSupport" displayName="tblStructuralPointSupport" ref="A1:V2">
-  <autoFilter ref="A1:V2" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="tblStructuralPointSupport" displayName="tblStructuralPointSupport" ref="A1:V3">
+  <autoFilter ref="A1:V3" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Type"/>
@@ -4075,8 +4069,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="tblStructuralEdgeConnection" displayName="tblStructuralEdgeConnection" ref="A1:AA3">
-  <autoFilter ref="A1:AA3" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="tblStructuralEdgeConnection" displayName="tblStructuralEdgeConnection" ref="A1:AA4">
+  <autoFilter ref="A1:AA4" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Type"/>
@@ -4440,8 +4434,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="tblStructuralCurveMoment" displayName="tblStructuralCurveMoment" ref="A1:X4">
-  <autoFilter ref="A1:X4" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="tblStructuralCurveMoment" displayName="tblStructuralCurveMoment" ref="A1:X6">
+  <autoFilter ref="A1:X6" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="Type"/>
@@ -5145,13 +5139,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5159,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5167,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5175,7 +5169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5183,7 +5177,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5191,7 +5185,7 @@
         <v>44564</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5207,7 +5201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5215,7 +5209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -5223,7 +5217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -5231,7 +5225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5253,7 +5247,7 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -5279,7 +5273,7 @@
     <col min="22" max="22" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>542</v>
       </c>
@@ -5428,7 +5422,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="27.109375" customWidth="1"/>
@@ -5452,7 +5446,7 @@
     <col min="23" max="23" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>599</v>
       </c>
@@ -5591,7 +5585,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>610</v>
       </c>
@@ -5659,7 +5653,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>613</v>
       </c>
@@ -5727,7 +5721,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>617</v>
       </c>
@@ -5795,7 +5789,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>620</v>
       </c>
@@ -5863,7 +5857,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>571</v>
       </c>
@@ -5931,7 +5925,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>627</v>
       </c>
@@ -5999,7 +5993,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>581</v>
       </c>
@@ -6067,7 +6061,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>633</v>
       </c>
@@ -6135,7 +6129,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
         <v>636</v>
       </c>
@@ -6203,7 +6197,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
         <v>639</v>
       </c>
@@ -6285,7 +6279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -6296,7 +6290,7 @@
     <col min="7" max="7" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6319,7 +6313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>644</v>
       </c>
@@ -6339,7 +6333,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>647</v>
       </c>
@@ -6359,7 +6353,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>651</v>
       </c>
@@ -6379,7 +6373,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>654</v>
       </c>
@@ -6399,7 +6393,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>657</v>
       </c>
@@ -6419,7 +6413,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>660</v>
       </c>
@@ -6439,7 +6433,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>663</v>
       </c>
@@ -6475,7 +6469,7 @@
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
@@ -6489,7 +6483,7 @@
     <col min="11" max="11" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6524,7 +6518,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>666</v>
       </c>
@@ -6556,7 +6550,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>670</v>
       </c>
@@ -6588,7 +6582,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>673</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>676</v>
       </c>
@@ -6666,14 +6660,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6684,7 +6678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>822</v>
       </c>
@@ -6695,7 +6689,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>824</v>
       </c>
@@ -6722,7 +6716,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
@@ -6730,7 +6724,7 @@
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6747,7 +6741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1031</v>
       </c>
@@ -6780,13 +6774,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1035</v>
       </c>
@@ -6803,7 +6797,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1031</v>
       </c>
@@ -6820,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1031</v>
       </c>
@@ -6837,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>1031</v>
       </c>
@@ -6854,7 +6848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>1031</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>1031</v>
       </c>
@@ -6888,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1031</v>
       </c>
@@ -6905,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>1031</v>
       </c>
@@ -6922,7 +6916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1031</v>
       </c>
@@ -6939,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>1031</v>
       </c>
@@ -6956,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1031</v>
       </c>
@@ -6973,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1031</v>
       </c>
@@ -6990,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>1031</v>
       </c>
@@ -7007,7 +7001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1031</v>
       </c>
@@ -7024,7 +7018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>1031</v>
       </c>
@@ -7041,7 +7035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>1031</v>
       </c>
@@ -7058,7 +7052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>1031</v>
       </c>
@@ -7091,14 +7085,14 @@
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1035</v>
       </c>
@@ -7109,7 +7103,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1031</v>
       </c>
@@ -7120,7 +7114,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1031</v>
       </c>
@@ -7131,7 +7125,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1031</v>
       </c>
@@ -7142,7 +7136,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>1031</v>
       </c>
@@ -7153,7 +7147,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>1031</v>
       </c>
@@ -7164,7 +7158,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>1031</v>
       </c>
@@ -7175,7 +7169,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1031</v>
       </c>
@@ -7186,7 +7180,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>1031</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>1031</v>
       </c>
@@ -7208,7 +7202,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>1031</v>
       </c>
@@ -7231,11 +7225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="9" width="9.21875" customWidth="1"/>
@@ -7246,7 +7240,7 @@
     <col min="22" max="22" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7254,7 +7248,7 @@
         <v>47</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>679</v>
@@ -7314,7 +7308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>692</v>
       </c>
@@ -7355,9 +7349,9 @@
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="6" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>716</v>
@@ -7404,9 +7398,6 @@
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="6" t="s">
-        <v>1181</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7422,10 +7413,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -7441,7 +7432,7 @@
     <col min="13" max="13" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7482,7 +7473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>735</v>
       </c>
@@ -7517,7 +7508,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>739</v>
       </c>
@@ -7568,16 +7559,16 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="79.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7585,7 +7576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7593,7 +7584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7601,7 +7592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -7609,7 +7600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7617,7 +7608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -7625,7 +7616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -7633,7 +7624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7641,7 +7632,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7649,7 +7640,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -7657,7 +7648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -7665,15 +7656,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -7681,7 +7672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -7689,7 +7680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -7697,7 +7688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
@@ -7705,7 +7696,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>1052</v>
       </c>
@@ -7713,7 +7704,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7721,12 +7712,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7744,10 +7735,10 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="A11:O24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
@@ -7765,7 +7756,7 @@
     <col min="23" max="23" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7836,7 +7827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>720</v>
       </c>
@@ -7901,7 +7892,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>725</v>
       </c>
@@ -7967,10 +7958,10 @@
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
@@ -7991,7 +7982,7 @@
     <col min="27" max="27" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8074,7 +8065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>708</v>
       </c>
@@ -8134,7 +8125,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>715</v>
       </c>
@@ -8194,15 +8185,15 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B4" t="s">
         <v>716</v>
       </c>
       <c r="C4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -8246,9 +8237,6 @@
       </c>
       <c r="Y4" s="3">
         <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -8268,7 +8256,7 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="9" width="9.109375" customWidth="1"/>
     <col min="10" max="12" width="18" customWidth="1"/>
@@ -8278,7 +8266,7 @@
     <col min="17" max="17" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>745</v>
       </c>
@@ -8369,7 +8357,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>748</v>
       </c>
@@ -8407,7 +8395,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>750</v>
       </c>
@@ -8445,7 +8433,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>752</v>
       </c>
@@ -8483,7 +8471,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>754</v>
       </c>
@@ -8521,7 +8509,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>756</v>
       </c>
@@ -8559,7 +8547,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>758</v>
       </c>
@@ -8597,7 +8585,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>760</v>
       </c>
@@ -8635,7 +8623,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>762</v>
       </c>
@@ -8673,7 +8661,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>764</v>
       </c>
@@ -8711,7 +8699,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>766</v>
       </c>
@@ -8749,7 +8737,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>768</v>
       </c>
@@ -8787,7 +8775,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>770</v>
       </c>
@@ -8825,7 +8813,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>772</v>
       </c>
@@ -8863,7 +8851,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>774</v>
       </c>
@@ -8901,7 +8889,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>776</v>
       </c>
@@ -8939,7 +8927,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>778</v>
       </c>
@@ -8977,7 +8965,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>781</v>
       </c>
@@ -9015,7 +9003,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>784</v>
       </c>
@@ -9053,7 +9041,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>786</v>
       </c>
@@ -9091,7 +9079,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>788</v>
       </c>
@@ -9129,7 +9117,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>790</v>
       </c>
@@ -9179,11 +9167,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -9200,7 +9188,7 @@
     <col min="21" max="21" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9265,7 +9253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>815</v>
       </c>
@@ -9315,7 +9303,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>817</v>
       </c>
@@ -9365,7 +9353,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>819</v>
       </c>
@@ -9431,12 +9419,12 @@
       <selection activeCell="F25" sqref="F25:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="23" max="23" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9507,7 +9495,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="6" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>1150</v>
       </c>
@@ -9565,7 +9553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -9586,7 +9574,7 @@
     <col min="22" max="22" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9654,7 +9642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>799</v>
       </c>
@@ -9738,7 +9726,7 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
@@ -9761,7 +9749,7 @@
     <col min="26" max="26" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9841,7 +9829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>812</v>
       </c>
@@ -9907,7 +9895,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -9916,7 +9904,7 @@
     <col min="5" max="5" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9933,7 +9921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>829</v>
       </c>
@@ -9947,7 +9935,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>832</v>
       </c>
@@ -9964,7 +9952,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>836</v>
       </c>
@@ -9981,7 +9969,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>839</v>
       </c>
@@ -9998,7 +9986,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>842</v>
       </c>
@@ -10015,7 +10003,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>845</v>
       </c>
@@ -10029,7 +10017,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>849</v>
       </c>
@@ -10059,7 +10047,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="3" width="11.44140625" customWidth="1"/>
@@ -10069,7 +10057,7 @@
     <col min="7" max="7" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10092,7 +10080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>856</v>
       </c>
@@ -10109,7 +10097,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>859</v>
       </c>
@@ -10126,7 +10114,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1059</v>
       </c>
@@ -10159,7 +10147,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="27.44140625" customWidth="1"/>
@@ -10174,7 +10162,7 @@
     <col min="12" max="12" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10203,7 +10191,7 @@
         <v>866</v>
       </c>
       <c r="J1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K1" t="s">
         <v>867</v>
@@ -10212,7 +10200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>868</v>
       </c>
@@ -10244,18 +10232,18 @@
         <v>871</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B3" t="s">
         <v>869</v>
       </c>
       <c r="C3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F3" s="4">
         <v>1.1000000000000001</v>
@@ -10289,10 +10277,10 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
@@ -10307,7 +10295,7 @@
     <col min="11" max="11" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10342,7 +10330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -10371,9 +10359,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -10400,7 +10388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -10429,7 +10417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -10458,7 +10446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -10487,7 +10475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -10516,7 +10504,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -10545,7 +10533,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -10574,7 +10562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -10603,7 +10591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -10632,7 +10620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -10661,7 +10649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -10704,7 +10692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -10724,7 +10712,7 @@
     <col min="16" max="16" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10774,7 +10762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>882</v>
       </c>
@@ -10809,7 +10797,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>886</v>
       </c>
@@ -10844,7 +10832,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>888</v>
       </c>
@@ -10879,7 +10867,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>890</v>
       </c>
@@ -10914,7 +10902,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>892</v>
       </c>
@@ -10949,7 +10937,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>895</v>
       </c>
@@ -10984,7 +10972,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>897</v>
       </c>
@@ -11029,7 +11017,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>900</v>
       </c>
@@ -11088,7 +11076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -11107,7 +11095,7 @@
     <col min="15" max="15" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11154,7 +11142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1014</v>
       </c>
@@ -11186,7 +11174,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>1017</v>
       </c>
@@ -11218,7 +11206,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>1019</v>
       </c>
@@ -11260,7 +11248,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>1022</v>
       </c>
@@ -11320,7 +11308,7 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -11350,7 +11338,7 @@
     <col min="28" max="28" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11436,7 +11424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>911</v>
       </c>
@@ -11500,7 +11488,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>917</v>
       </c>
@@ -11564,7 +11552,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>919</v>
       </c>
@@ -11628,7 +11616,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>921</v>
       </c>
@@ -11692,7 +11680,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>923</v>
       </c>
@@ -11756,7 +11744,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>925</v>
       </c>
@@ -11820,7 +11808,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>927</v>
       </c>
@@ -11884,7 +11872,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>929</v>
       </c>
@@ -11948,7 +11936,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>931</v>
       </c>
@@ -12012,7 +12000,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>934</v>
       </c>
@@ -12076,7 +12064,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>936</v>
       </c>
@@ -12140,7 +12128,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>938</v>
       </c>
@@ -12204,7 +12192,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>940</v>
       </c>
@@ -12268,7 +12256,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>942</v>
       </c>
@@ -12332,7 +12320,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>944</v>
       </c>
@@ -12396,7 +12384,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>946</v>
       </c>
@@ -12460,7 +12448,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>948</v>
       </c>
@@ -12524,7 +12512,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>950</v>
       </c>
@@ -12588,7 +12576,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>952</v>
       </c>
@@ -12652,7 +12640,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>954</v>
       </c>
@@ -12716,7 +12704,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>956</v>
       </c>
@@ -12780,7 +12768,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>958</v>
       </c>
@@ -12844,7 +12832,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>960</v>
       </c>
@@ -12908,7 +12896,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>962</v>
       </c>
@@ -12972,7 +12960,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>964</v>
       </c>
@@ -13036,7 +13024,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>966</v>
       </c>
@@ -13100,7 +13088,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>968</v>
       </c>
@@ -13166,7 +13154,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>972</v>
       </c>
@@ -13232,7 +13220,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>974</v>
       </c>
@@ -13298,7 +13286,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>976</v>
       </c>
@@ -13306,7 +13294,7 @@
         <v>459</v>
       </c>
       <c r="C31" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D31" t="s">
         <v>977</v>
@@ -13367,7 +13355,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>979</v>
       </c>
@@ -13375,7 +13363,7 @@
         <v>459</v>
       </c>
       <c r="C32" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D32" t="s">
         <v>977</v>
@@ -13449,11 +13437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
@@ -13480,7 +13468,7 @@
     <col min="24" max="24" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13554,7 +13542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>911</v>
       </c>
@@ -13606,7 +13594,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>917</v>
       </c>
@@ -13658,7 +13646,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>919</v>
       </c>
@@ -13712,7 +13700,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>921</v>
       </c>
@@ -13762,11 +13750,8 @@
       <c r="V5" s="3">
         <v>1</v>
       </c>
-      <c r="X5" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>958</v>
       </c>
@@ -13774,7 +13759,7 @@
         <v>459</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D6" t="s">
         <v>912</v>
@@ -13816,9 +13801,6 @@
       </c>
       <c r="V6" s="3">
         <v>1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>1153</v>
       </c>
     </row>
   </sheetData>
@@ -13838,7 +13820,7 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
@@ -13854,7 +13836,7 @@
     <col min="13" max="13" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13895,7 +13877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>987</v>
       </c>
@@ -13927,7 +13909,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>989</v>
       </c>
@@ -13959,7 +13941,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>991</v>
       </c>
@@ -13991,7 +13973,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>993</v>
       </c>
@@ -14023,7 +14005,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>995</v>
       </c>
@@ -14071,7 +14053,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
@@ -14084,7 +14066,7 @@
     <col min="9" max="9" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14113,7 +14095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1009</v>
       </c>
@@ -14134,7 +14116,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1011</v>
       </c>
@@ -14176,7 +14158,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
@@ -14189,7 +14171,7 @@
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14242,7 +14224,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>1009</v>
       </c>
@@ -14281,7 +14263,7 @@
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
         <v>1011</v>
       </c>
@@ -14320,7 +14302,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
         <v>1060</v>
       </c>
@@ -14365,7 +14347,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>1061</v>
       </c>
@@ -14424,7 +14406,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -14438,7 +14420,7 @@
     <col min="11" max="11" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14473,7 +14455,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>902</v>
       </c>
@@ -14524,7 +14506,7 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -14539,7 +14521,7 @@
     <col min="16" max="16" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14589,7 +14571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>911</v>
       </c>
@@ -14652,7 +14634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
@@ -14668,7 +14650,7 @@
     <col min="13" max="13" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14709,7 +14691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>998</v>
       </c>
@@ -14763,10 +14745,10 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
@@ -14781,7 +14763,7 @@
     <col min="16" max="16" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14831,7 +14813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -14858,12 +14840,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C3" t="s">
         <v>100</v>
@@ -14885,7 +14867,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -14912,7 +14894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -14939,12 +14921,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C6" t="s">
         <v>100</v>
@@ -14966,7 +14948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -14993,7 +14975,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -15020,7 +15002,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -15047,7 +15029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -15074,7 +15056,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -15101,7 +15083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -15128,7 +15110,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>140</v>
       </c>
@@ -15155,7 +15137,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -15182,7 +15164,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -15209,7 +15191,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -15223,7 +15205,7 @@
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -15236,7 +15218,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -15250,7 +15232,7 @@
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -15263,7 +15245,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -15277,7 +15259,7 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -15290,7 +15272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>157</v>
       </c>
@@ -15304,7 +15286,7 @@
         <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -15317,7 +15299,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -15344,7 +15326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -15371,7 +15353,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -15398,7 +15380,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -15425,7 +15407,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -15452,7 +15434,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -15479,7 +15461,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -15506,7 +15488,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -15536,7 +15518,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -15566,7 +15548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>190</v>
       </c>
@@ -15596,12 +15578,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C30" t="s">
         <v>193</v>
@@ -15636,7 +15618,7 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -15653,7 +15635,7 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -15694,7 +15676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>1108</v>
       </c>
@@ -15702,7 +15684,7 @@
         <v>416</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>604</v>
@@ -15731,7 +15713,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>1109</v>
       </c>
@@ -15768,7 +15750,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>1110</v>
       </c>
@@ -15821,7 +15803,7 @@
       <selection activeCell="F6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
@@ -15838,21 +15820,21 @@
     <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>872</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>878</v>
@@ -15867,9 +15849,9 @@
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>692</v>
@@ -15892,7 +15874,7 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -15907,7 +15889,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -15938,7 +15920,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -15956,9 +15938,9 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>718</v>
@@ -15967,43 +15949,43 @@
         <v>1058</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>878</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>1163</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>1164</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>1165</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>1036</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>1166</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>1167</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>1168</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>1169</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>1170</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="21" t="s">
         <v>898</v>
       </c>
@@ -16012,7 +15994,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="21" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="22" t="s">
@@ -16020,7 +16002,7 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="22" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="I2" s="9">
         <v>1</v>
@@ -16044,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15">
       <c r="A3" s="21" t="s">
         <v>898</v>
       </c>
@@ -16053,7 +16035,7 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="21" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="22" t="s">
@@ -16061,7 +16043,7 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="22" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="I3" s="9">
         <v>2</v>
@@ -16085,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -16116,7 +16098,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.21875" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
@@ -16134,9 +16116,9 @@
     <col min="18" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="6" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>561</v>
@@ -16145,49 +16127,49 @@
         <v>696</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>878</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>1164</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>1165</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1036</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>1188</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>1190</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>1192</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>1193</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="6" t="s">
         <v>969</v>
       </c>
@@ -16234,7 +16216,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
         <v>969</v>
       </c>
@@ -16281,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
         <v>969</v>
       </c>
@@ -16328,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>969</v>
       </c>
@@ -16375,100 +16357,100 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5">
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5">
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5">
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:5">
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:5">
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:5">
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:5">
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:5">
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:5">
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:5">
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:5">
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:5">
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:5">
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5">
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5">
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5">
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5">
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5">
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5">
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5">
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5">
       <c r="E37" s="8"/>
     </row>
   </sheetData>
@@ -16487,7 +16469,7 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -16495,7 +16477,7 @@
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16509,12 +16491,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C2" t="s">
         <v>198</v>
@@ -16536,7 +16518,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" customWidth="1"/>
@@ -16544,7 +16526,7 @@
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16561,7 +16543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -16578,7 +16560,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -16595,7 +16577,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>206</v>
       </c>
@@ -16612,7 +16594,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>208</v>
       </c>
@@ -16629,7 +16611,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -16646,7 +16628,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -16663,7 +16645,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>214</v>
       </c>
@@ -16680,7 +16662,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -16697,7 +16679,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -16714,7 +16696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -16731,7 +16713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>222</v>
       </c>
@@ -16748,7 +16730,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -16765,7 +16747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>226</v>
       </c>
@@ -16782,7 +16764,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>228</v>
       </c>
@@ -16799,7 +16781,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>230</v>
       </c>
@@ -16816,7 +16798,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -16833,7 +16815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -16850,7 +16832,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -16867,7 +16849,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -16884,7 +16866,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>240</v>
       </c>
@@ -16901,7 +16883,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>242</v>
       </c>
@@ -16918,7 +16900,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>244</v>
       </c>
@@ -16935,7 +16917,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>246</v>
       </c>
@@ -16952,7 +16934,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>248</v>
       </c>
@@ -16969,7 +16951,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>250</v>
       </c>
@@ -16986,7 +16968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>252</v>
       </c>
@@ -17003,7 +16985,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>254</v>
       </c>
@@ -17020,7 +17002,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -17037,7 +17019,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -17054,7 +17036,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>260</v>
       </c>
@@ -17071,7 +17053,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>262</v>
       </c>
@@ -17088,7 +17070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -17105,7 +17087,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -17122,7 +17104,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -17139,7 +17121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>270</v>
       </c>
@@ -17156,7 +17138,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -17173,7 +17155,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>274</v>
       </c>
@@ -17190,7 +17172,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>276</v>
       </c>
@@ -17207,7 +17189,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -17224,7 +17206,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>280</v>
       </c>
@@ -17241,7 +17223,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -17258,7 +17240,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>284</v>
       </c>
@@ -17275,7 +17257,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>286</v>
       </c>
@@ -17292,7 +17274,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>288</v>
       </c>
@@ -17309,7 +17291,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>290</v>
       </c>
@@ -17326,7 +17308,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -17343,7 +17325,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>294</v>
       </c>
@@ -17360,7 +17342,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>296</v>
       </c>
@@ -17377,7 +17359,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>298</v>
       </c>
@@ -17394,7 +17376,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>300</v>
       </c>
@@ -17411,7 +17393,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>302</v>
       </c>
@@ -17428,7 +17410,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>304</v>
       </c>
@@ -17445,7 +17427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>306</v>
       </c>
@@ -17462,7 +17444,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>308</v>
       </c>
@@ -17479,7 +17461,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>310</v>
       </c>
@@ -17496,7 +17478,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>312</v>
       </c>
@@ -17513,7 +17495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>314</v>
       </c>
@@ -17530,7 +17512,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>316</v>
       </c>
@@ -17547,7 +17529,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>318</v>
       </c>
@@ -17564,7 +17546,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>320</v>
       </c>
@@ -17581,7 +17563,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>322</v>
       </c>
@@ -17598,7 +17580,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>324</v>
       </c>
@@ -17615,7 +17597,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>326</v>
       </c>
@@ -17632,7 +17614,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>328</v>
       </c>
@@ -17649,7 +17631,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>330</v>
       </c>
@@ -17666,7 +17648,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>332</v>
       </c>
@@ -17683,7 +17665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>334</v>
       </c>
@@ -17700,7 +17682,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>336</v>
       </c>
@@ -17717,7 +17699,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>338</v>
       </c>
@@ -17734,7 +17716,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>340</v>
       </c>
@@ -17751,7 +17733,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>342</v>
       </c>
@@ -17768,7 +17750,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>344</v>
       </c>
@@ -17785,7 +17767,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>346</v>
       </c>
@@ -17802,7 +17784,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>348</v>
       </c>
@@ -17819,7 +17801,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>350</v>
       </c>
@@ -17836,7 +17818,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>352</v>
       </c>
@@ -17853,7 +17835,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>354</v>
       </c>
@@ -17870,7 +17852,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>356</v>
       </c>
@@ -17887,7 +17869,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -17904,7 +17886,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>360</v>
       </c>
@@ -17921,7 +17903,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>362</v>
       </c>
@@ -17938,7 +17920,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>364</v>
       </c>
@@ -17955,7 +17937,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>366</v>
       </c>
@@ -17972,7 +17954,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>368</v>
       </c>
@@ -17989,7 +17971,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>370</v>
       </c>
@@ -18006,7 +17988,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>372</v>
       </c>
@@ -18023,7 +18005,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>374</v>
       </c>
@@ -18040,7 +18022,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>376</v>
       </c>
@@ -18057,7 +18039,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>378</v>
       </c>
@@ -18074,7 +18056,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>380</v>
       </c>
@@ -18091,7 +18073,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>382</v>
       </c>
@@ -18108,7 +18090,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>384</v>
       </c>
@@ -18125,7 +18107,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>386</v>
       </c>
@@ -18142,7 +18124,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>388</v>
       </c>
@@ -18159,7 +18141,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>390</v>
       </c>
@@ -18176,7 +18158,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>392</v>
       </c>
@@ -18193,7 +18175,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>394</v>
       </c>
@@ -18210,7 +18192,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>396</v>
       </c>
@@ -18227,7 +18209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>398</v>
       </c>
@@ -18244,7 +18226,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -18261,7 +18243,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>402</v>
       </c>
@@ -18278,7 +18260,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>404</v>
       </c>
@@ -18295,7 +18277,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>406</v>
       </c>
@@ -18312,7 +18294,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>408</v>
       </c>
@@ -18329,7 +18311,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>410</v>
       </c>
@@ -18346,7 +18328,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>412</v>
       </c>
@@ -18363,7 +18345,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5">
       <c r="A108" s="6" t="s">
         <v>1065</v>
       </c>
@@ -18378,7 +18360,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5">
       <c r="A109" s="6" t="s">
         <v>1066</v>
       </c>
@@ -18393,7 +18375,7 @@
       </c>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5">
       <c r="A110" s="6" t="s">
         <v>1069</v>
       </c>
@@ -18408,7 +18390,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5">
       <c r="A111" s="6" t="s">
         <v>1070</v>
       </c>
@@ -18423,7 +18405,7 @@
       </c>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5">
       <c r="A112" s="6" t="s">
         <v>1073</v>
       </c>
@@ -18438,7 +18420,7 @@
       </c>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5">
       <c r="A113" s="6" t="s">
         <v>1077</v>
       </c>
@@ -18453,7 +18435,7 @@
       </c>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5">
       <c r="A114" s="6" t="s">
         <v>1074</v>
       </c>
@@ -18468,7 +18450,7 @@
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5">
       <c r="A115" s="6" t="s">
         <v>1078</v>
       </c>
@@ -18483,7 +18465,7 @@
       </c>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5">
       <c r="A116" s="6" t="s">
         <v>1082</v>
       </c>
@@ -18498,7 +18480,7 @@
       </c>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5">
       <c r="A117" s="6" t="s">
         <v>1094</v>
       </c>
@@ -18513,7 +18495,7 @@
       </c>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5">
       <c r="A118" s="6" t="s">
         <v>1095</v>
       </c>
@@ -18528,7 +18510,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5">
       <c r="A119" s="6" t="s">
         <v>1096</v>
       </c>
@@ -18543,7 +18525,7 @@
       </c>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5">
       <c r="A120" s="6" t="s">
         <v>1083</v>
       </c>
@@ -18558,7 +18540,7 @@
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5">
       <c r="A121" s="6" t="s">
         <v>1088</v>
       </c>
@@ -18573,7 +18555,7 @@
       </c>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5">
       <c r="A122" s="6" t="s">
         <v>1089</v>
       </c>
@@ -18588,7 +18570,7 @@
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5">
       <c r="A123" s="6" t="s">
         <v>1092</v>
       </c>
@@ -18603,7 +18585,7 @@
       </c>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5">
       <c r="A124" s="6" t="s">
         <v>1093</v>
       </c>
@@ -18618,7 +18600,7 @@
       </c>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5">
       <c r="A125" s="6" t="s">
         <v>1121</v>
       </c>
@@ -18633,7 +18615,7 @@
       </c>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5">
       <c r="A126" s="6" t="s">
         <v>1122</v>
       </c>
@@ -18648,7 +18630,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5">
       <c r="A127" s="6" t="s">
         <v>1123</v>
       </c>
@@ -18663,7 +18645,7 @@
       </c>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5">
       <c r="A128" s="6" t="s">
         <v>1124</v>
       </c>
@@ -18694,7 +18676,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
@@ -18704,7 +18686,7 @@
     <col min="6" max="6" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18724,7 +18706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>580</v>
       </c>
@@ -18741,7 +18723,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>584</v>
       </c>
@@ -18758,7 +18740,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>587</v>
       </c>
@@ -18791,7 +18773,7 @@
       <selection activeCell="F17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
@@ -18820,7 +18802,7 @@
     <col min="28" max="28" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18906,7 +18888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>436</v>
       </c>
@@ -18989,7 +18971,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -19069,7 +19051,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>450</v>
       </c>
@@ -19149,7 +19131,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>454</v>
       </c>
@@ -19229,7 +19211,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>457</v>
       </c>
@@ -19309,7 +19291,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -19389,7 +19371,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>465</v>
       </c>
@@ -19469,7 +19451,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>468</v>
       </c>
@@ -19549,7 +19531,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>472</v>
       </c>
@@ -19629,7 +19611,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>475</v>
       </c>
@@ -19709,7 +19691,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -19789,7 +19771,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -19869,7 +19851,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>484</v>
       </c>
@@ -19949,7 +19931,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>487</v>
       </c>
@@ -20029,7 +20011,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>490</v>
       </c>
@@ -20109,7 +20091,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>493</v>
       </c>
@@ -20189,7 +20171,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>496</v>
       </c>
@@ -20269,7 +20251,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>499</v>
       </c>
@@ -20349,7 +20331,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>502</v>
       </c>
@@ -20429,7 +20411,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>505</v>
       </c>
@@ -20509,7 +20491,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>508</v>
       </c>
@@ -20589,7 +20571,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>511</v>
       </c>
@@ -20669,7 +20651,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>514</v>
       </c>
@@ -20749,7 +20731,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>517</v>
       </c>
@@ -20829,7 +20811,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>520</v>
       </c>
@@ -20909,7 +20891,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>523</v>
       </c>
@@ -20989,7 +20971,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>526</v>
       </c>
@@ -21069,7 +21051,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>529</v>
       </c>
@@ -21149,7 +21131,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>532</v>
       </c>
@@ -21229,7 +21211,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>535</v>
       </c>
@@ -21309,7 +21291,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>538</v>
       </c>
@@ -21389,7 +21371,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>542</v>
       </c>
@@ -21469,7 +21451,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>545</v>
       </c>
@@ -21549,7 +21531,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28">
       <c r="A35" s="6" t="s">
         <v>1062</v>
       </c>
@@ -21625,7 +21607,7 @@
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28">
       <c r="A36" s="6" t="s">
         <v>1067</v>
       </c>
@@ -21701,7 +21683,7 @@
       <c r="AA36" s="6"/>
       <c r="AB36" s="6"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28">
       <c r="A37" s="6" t="s">
         <v>1071</v>
       </c>
@@ -21777,7 +21759,7 @@
       <c r="AA37" s="6"/>
       <c r="AB37" s="6"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28">
       <c r="A38" s="6" t="s">
         <v>1075</v>
       </c>
@@ -21853,7 +21835,7 @@
       <c r="AA38" s="6"/>
       <c r="AB38" s="6"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28">
       <c r="A39" s="6" t="s">
         <v>1079</v>
       </c>
@@ -21865,7 +21847,7 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>622</v>
@@ -21927,7 +21909,7 @@
       <c r="AA39" s="6"/>
       <c r="AB39" s="6"/>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28">
       <c r="A40" s="6" t="s">
         <v>1086</v>
       </c>
@@ -22003,7 +21985,7 @@
       <c r="AA40" s="6"/>
       <c r="AB40" s="6"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28">
       <c r="A41" s="6" t="s">
         <v>1090</v>
       </c>
@@ -22079,7 +22061,7 @@
       <c r="AA41" s="6"/>
       <c r="AB41" s="6"/>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28">
       <c r="A42" s="6" t="s">
         <v>1125</v>
       </c>
@@ -22159,7 +22141,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28">
       <c r="A43" s="6" t="s">
         <v>1129</v>
       </c>
@@ -22255,7 +22237,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -22270,7 +22252,7 @@
     <col min="11" max="11" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22305,7 +22287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>437</v>
       </c>
